--- a/output/damage/BRN_osm_tc__EC-Earth3P-HR_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc__EC-Earth3P-HR_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.932695603893474e-05</v>
+        <v>0.3543372130239283</v>
       </c>
       <c r="F2" t="n">
-        <v>4.449521702920106e-05</v>
+        <v>0.2657529097679462</v>
       </c>
       <c r="G2" t="n">
-        <v>7.415869504866843e-05</v>
+        <v>0.4429215162799104</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001186539120778695</v>
+        <v>0.7086744260478566</v>
       </c>
       <c r="F3" t="n">
-        <v>8.899043405840212e-05</v>
+        <v>0.5315058195358925</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001483173900973369</v>
+        <v>0.8858430325598208</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0002966347801946737</v>
+        <v>1.771686065119642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002224760851460053</v>
+        <v>1.328764548839731</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003707934752433422</v>
+        <v>2.214607581399552</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.014727633301594e-09</v>
+        <v>0.0001829584527226058</v>
       </c>
       <c r="F5" t="n">
-        <v>7.610457249761954e-10</v>
+        <v>0.0001372188395419544</v>
       </c>
       <c r="G5" t="n">
-        <v>1.268409541626992e-09</v>
+        <v>0.0002286980659032572</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.029455266603187e-09</v>
+        <v>0.0003659169054452116</v>
       </c>
       <c r="F6" t="n">
-        <v>1.522091449952391e-09</v>
+        <v>0.0002744376790839087</v>
       </c>
       <c r="G6" t="n">
-        <v>2.536819083253985e-09</v>
+        <v>0.0004573961318065145</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.073638166507969e-09</v>
+        <v>0.000914792263613029</v>
       </c>
       <c r="F7" t="n">
-        <v>3.805228624880977e-09</v>
+        <v>0.0006860941977097718</v>
       </c>
       <c r="G7" t="n">
-        <v>6.342047708134962e-09</v>
+        <v>0.001143490329516286</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.628376111754185e-10</v>
+        <v>9.443639967007342e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>5.721282083815639e-10</v>
+        <v>7.082729975255507e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>9.535470139692733e-10</v>
+        <v>0.0001180454995875918</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.525675222350837e-09</v>
+        <v>0.0001888727993401468</v>
       </c>
       <c r="F9" t="n">
-        <v>1.144256416763128e-09</v>
+        <v>0.0001416545995051101</v>
       </c>
       <c r="G9" t="n">
-        <v>1.907094027938547e-09</v>
+        <v>0.0002360909991751836</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.814188055877093e-09</v>
+        <v>0.0004721819983503672</v>
       </c>
       <c r="F10" t="n">
-        <v>2.86064104190782e-09</v>
+        <v>0.0003541364987627753</v>
       </c>
       <c r="G10" t="n">
-        <v>4.767735069846367e-09</v>
+        <v>0.000590227497937959</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.560674994795266e-09</v>
+        <v>0.0002251378559460177</v>
       </c>
       <c r="F11" t="n">
-        <v>3.420506246096449e-09</v>
+        <v>0.0001688533919595133</v>
       </c>
       <c r="G11" t="n">
-        <v>5.700843743494084e-09</v>
+        <v>0.0002814223199325221</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.121349989590531e-09</v>
+        <v>0.0004502757118920354</v>
       </c>
       <c r="F12" t="n">
-        <v>6.841012492192899e-09</v>
+        <v>0.0003377067839190266</v>
       </c>
       <c r="G12" t="n">
-        <v>1.140168748698817e-08</v>
+        <v>0.0005628446398650443</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.280337497397633e-08</v>
+        <v>0.001125689279730089</v>
       </c>
       <c r="F13" t="n">
-        <v>1.710253123048225e-08</v>
+        <v>0.0008442669597975664</v>
       </c>
       <c r="G13" t="n">
-        <v>2.850421871747042e-08</v>
+        <v>0.001407111599662611</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.130544897010363e-10</v>
+        <v>4.004205098108014e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>3.847908672757772e-10</v>
+        <v>3.003153823581011e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>6.413181121262954e-10</v>
+        <v>5.005256372635018e-05</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.026108979402073e-09</v>
+        <v>8.008410196216027e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>7.695817345515545e-10</v>
+        <v>6.006307647162022e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>1.282636224252591e-09</v>
+        <v>0.0001001051274527004</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.565272448505182e-09</v>
+        <v>0.0002002102549054007</v>
       </c>
       <c r="F16" t="n">
-        <v>1.923954336378886e-09</v>
+        <v>0.0001501576911790505</v>
       </c>
       <c r="G16" t="n">
-        <v>3.206590560631478e-09</v>
+        <v>0.0002502628186317509</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>302566.1606864575</v>
+        <v>54539.25228932701</v>
       </c>
       <c r="F17" t="n">
-        <v>226924.6205148431</v>
+        <v>40904.43921699527</v>
       </c>
       <c r="G17" t="n">
-        <v>378207.7008580719</v>
+        <v>68174.06536165877</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>605132.3213729149</v>
+        <v>127445.7419217849</v>
       </c>
       <c r="F18" t="n">
-        <v>453849.2410296862</v>
+        <v>95584.30644133865</v>
       </c>
       <c r="G18" t="n">
-        <v>756415.4017161438</v>
+        <v>159307.1774022311</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1512830.803432288</v>
+        <v>41699.6453073362</v>
       </c>
       <c r="F19" t="n">
-        <v>1134623.102574216</v>
+        <v>31274.73398050215</v>
       </c>
       <c r="G19" t="n">
-        <v>1891038.504290359</v>
+        <v>52124.55663417026</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>257342.880293007</v>
+        <v>37254.61690809518</v>
       </c>
       <c r="F20" t="n">
-        <v>193007.1602197553</v>
+        <v>27940.96268107139</v>
       </c>
       <c r="G20" t="n">
-        <v>321678.6003662589</v>
+        <v>46568.27113511898</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>514685.7605860141</v>
+        <v>76928.34284937978</v>
       </c>
       <c r="F21" t="n">
-        <v>386014.3204395106</v>
+        <v>57696.25713703484</v>
       </c>
       <c r="G21" t="n">
-        <v>643357.2007325178</v>
+        <v>96160.42856172472</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1286714.401465036</v>
+        <v>233597.3272484666</v>
       </c>
       <c r="F22" t="n">
-        <v>965035.8010987765</v>
+        <v>175197.9954363499</v>
       </c>
       <c r="G22" t="n">
-        <v>1608393.001831295</v>
+        <v>291996.6590605833</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F23" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F24" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G24" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F25" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G25" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G28" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F32" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G32" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G35" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F38" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G38" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F39" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G39" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F40" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G40" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F41" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G41" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F42" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G42" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F43" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G43" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F44" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F45" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G45" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F46" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G46" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G49" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F52" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F53" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G53" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F54" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G54" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F56" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G56" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G57" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F58" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G58" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F59" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G59" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F60" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G60" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F61" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G61" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F62" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G62" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F63" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G63" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F64" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G64" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F65" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G65" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F66" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G66" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F67" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G67" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F68" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G68" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F69" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G69" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G70" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F71" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G71" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F72" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G72" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F73" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G73" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F74" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G74" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F75" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G75" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F76" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G76" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F77" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G77" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F78" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G78" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F79" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G79" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F80" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G80" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F81" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G81" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F82" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G82" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F83" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G83" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F84" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G84" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F85" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G85" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2.26813813520974e-08</v>
+        <v>0.0002685606282664117</v>
       </c>
       <c r="F86" t="n">
-        <v>1.701103601407305e-08</v>
+        <v>0.0002014204711998088</v>
       </c>
       <c r="G86" t="n">
-        <v>2.835172669012175e-08</v>
+        <v>0.0003357007853330146</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4.536276270419479e-08</v>
+        <v>0.0005371212565328234</v>
       </c>
       <c r="F87" t="n">
-        <v>3.402207202814609e-08</v>
+        <v>0.0004028409423996176</v>
       </c>
       <c r="G87" t="n">
-        <v>5.67034533802435e-08</v>
+        <v>0.0006714015706660293</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.13406906760487e-07</v>
+        <v>0.001342803141332059</v>
       </c>
       <c r="F88" t="n">
-        <v>8.505518007036524e-08</v>
+        <v>0.001007102355999044</v>
       </c>
       <c r="G88" t="n">
-        <v>1.417586334506087e-07</v>
+        <v>0.001678503926665073</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.993772653051559e-15</v>
+        <v>5.240890360677817e-09</v>
       </c>
       <c r="F89" t="n">
-        <v>2.995329489788669e-15</v>
+        <v>3.930667770508363e-09</v>
       </c>
       <c r="G89" t="n">
-        <v>4.992215816314449e-15</v>
+        <v>6.551112950847272e-09</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>7.987545306103118e-15</v>
+        <v>1.048178072135563e-08</v>
       </c>
       <c r="F90" t="n">
-        <v>5.990658979577339e-15</v>
+        <v>7.861335541016726e-09</v>
       </c>
       <c r="G90" t="n">
-        <v>9.984431632628899e-15</v>
+        <v>1.310222590169454e-08</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.99688632652578e-14</v>
+        <v>2.620445180338909e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>1.497664744894335e-14</v>
+        <v>1.965333885254181e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>2.496107908157225e-14</v>
+        <v>3.275556475423636e-08</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.810414734974461e-15</v>
+        <v>3.914905804878775e-09</v>
       </c>
       <c r="F92" t="n">
-        <v>4.357811051230846e-15</v>
+        <v>2.936179353659082e-09</v>
       </c>
       <c r="G92" t="n">
-        <v>7.263018418718077e-15</v>
+        <v>4.89363225609847e-09</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1.162082946994892e-14</v>
+        <v>7.829811609757551e-09</v>
       </c>
       <c r="F93" t="n">
-        <v>8.715622102461692e-15</v>
+        <v>5.872358707318164e-09</v>
       </c>
       <c r="G93" t="n">
-        <v>1.452603683743615e-14</v>
+        <v>9.78726451219694e-09</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.905207367487231e-14</v>
+        <v>1.957452902439388e-08</v>
       </c>
       <c r="F94" t="n">
-        <v>2.178905525615423e-14</v>
+        <v>1.468089676829541e-08</v>
       </c>
       <c r="G94" t="n">
-        <v>3.631509209359039e-14</v>
+        <v>2.446816128049235e-08</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.360201184587266e-13</v>
+        <v>2.290889996976311e-08</v>
       </c>
       <c r="F95" t="n">
-        <v>1.020150888440449e-13</v>
+        <v>1.718167497732233e-08</v>
       </c>
       <c r="G95" t="n">
-        <v>1.700251480734082e-13</v>
+        <v>2.863612496220389e-08</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.720402369174531e-13</v>
+        <v>4.581779993952622e-08</v>
       </c>
       <c r="F96" t="n">
-        <v>2.040301776880899e-13</v>
+        <v>3.436334995464467e-08</v>
       </c>
       <c r="G96" t="n">
-        <v>3.400502961468164e-13</v>
+        <v>5.727224992440777e-08</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.801005922936329e-13</v>
+        <v>1.145444998488155e-07</v>
       </c>
       <c r="F97" t="n">
-        <v>5.100754442202246e-13</v>
+        <v>8.590837488661166e-08</v>
       </c>
       <c r="G97" t="n">
-        <v>8.501257403670411e-13</v>
+        <v>1.431806248110195e-07</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.785291772636765e-15</v>
+        <v>2.605233030352341e-09</v>
       </c>
       <c r="F98" t="n">
-        <v>6.588968829477573e-15</v>
+        <v>1.953924772764257e-09</v>
       </c>
       <c r="G98" t="n">
-        <v>1.098161471579596e-14</v>
+        <v>3.256541287940428e-09</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1.757058354527353e-14</v>
+        <v>5.210466060704683e-09</v>
       </c>
       <c r="F99" t="n">
-        <v>1.317793765895515e-14</v>
+        <v>3.907849545528513e-09</v>
       </c>
       <c r="G99" t="n">
-        <v>2.196322943159191e-14</v>
+        <v>6.513082575880856e-09</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4.392645886318382e-14</v>
+        <v>1.302616515176171e-08</v>
       </c>
       <c r="F100" t="n">
-        <v>3.294484414738786e-14</v>
+        <v>9.769623863821282e-09</v>
       </c>
       <c r="G100" t="n">
-        <v>5.490807357897978e-14</v>
+        <v>1.628270643970214e-08</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>270940.495685908</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F101" t="n">
-        <v>203205.371764431</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G101" t="n">
-        <v>338675.6196073851</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>541880.991371816</v>
+        <v>85159.52364648442</v>
       </c>
       <c r="F102" t="n">
-        <v>406410.7435288621</v>
+        <v>63869.64273486332</v>
       </c>
       <c r="G102" t="n">
-        <v>677351.2392147701</v>
+        <v>106449.4045581055</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1354702.47842954</v>
+        <v>1562.377986214256</v>
       </c>
       <c r="F103" t="n">
-        <v>1016026.858822155</v>
+        <v>1171.783489660692</v>
       </c>
       <c r="G103" t="n">
-        <v>1693378.098036926</v>
+        <v>1952.97248276782</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>197755.6613426039</v>
+        <v>29602.1304955339</v>
       </c>
       <c r="F104" t="n">
-        <v>148316.7460069529</v>
+        <v>22201.59787165043</v>
       </c>
       <c r="G104" t="n">
-        <v>247194.5766782548</v>
+        <v>37002.66311941738</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>395511.3226852077</v>
+        <v>60351.32405324225</v>
       </c>
       <c r="F105" t="n">
-        <v>296633.4920139058</v>
+        <v>45263.49303993169</v>
       </c>
       <c r="G105" t="n">
-        <v>494389.1533565097</v>
+        <v>75439.15506655282</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>988778.3067130194</v>
+        <v>174847.9646445642</v>
       </c>
       <c r="F106" t="n">
-        <v>741583.7300347644</v>
+        <v>131135.9734834232</v>
       </c>
       <c r="G106" t="n">
-        <v>1235972.883391274</v>
+        <v>218559.9558057053</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F107" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G107" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F108" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G108" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F109" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G109" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G110" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F111" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G111" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G112" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F113" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F114" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G114" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F115" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G115" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F116" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G116" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F117" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G117" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F118" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G118" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F119" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G119" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F120" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G120" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F121" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G121" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F122" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G122" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F123" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G123" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F124" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G124" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F125" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G125" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F126" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G126" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F127" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G127" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F128" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G128" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F129" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G129" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F130" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G130" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F131" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G131" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F132" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G132" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F133" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G133" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F134" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G134" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F135" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G135" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F136" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G136" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F137" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G137" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F138" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F139" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G139" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F140" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G140" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F141" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G141" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F142" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G142" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F143" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G143" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F144" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G144" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F145" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G145" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F146" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G146" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F147" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G147" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F148" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G148" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.734306368535806e-07</v>
+        <v>0.01355983710718812</v>
       </c>
       <c r="F149" t="n">
-        <v>5.050729776401854e-07</v>
+        <v>0.01016987783039109</v>
       </c>
       <c r="G149" t="n">
-        <v>8.41788296066976e-07</v>
+        <v>0.01694979638398515</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1.346861273707161e-06</v>
+        <v>0.02711967421437624</v>
       </c>
       <c r="F150" t="n">
-        <v>1.010145955280371e-06</v>
+        <v>0.02033975566078218</v>
       </c>
       <c r="G150" t="n">
-        <v>1.683576592133952e-06</v>
+        <v>0.0338995927679703</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3.367153184267904e-06</v>
+        <v>0.06779918553594061</v>
       </c>
       <c r="F151" t="n">
-        <v>2.525364888200928e-06</v>
+        <v>0.05084938915195545</v>
       </c>
       <c r="G151" t="n">
-        <v>4.20894148033488e-06</v>
+        <v>0.08474898191992578</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1.46966288778661e-12</v>
+        <v>1.567547688604341e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>1.102247165839958e-12</v>
+        <v>1.175660766453256e-06</v>
       </c>
       <c r="G152" t="n">
-        <v>1.837078609733263e-12</v>
+        <v>1.959434610755427e-06</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2.93932577557322e-12</v>
+        <v>3.135095377208683e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>2.204494331679915e-12</v>
+        <v>2.351321532906512e-06</v>
       </c>
       <c r="G153" t="n">
-        <v>3.674157219466526e-12</v>
+        <v>3.918869221510854e-06</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>7.348314438933052e-12</v>
+        <v>7.837738443021708e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>5.511235829199789e-12</v>
+        <v>5.878303832266281e-06</v>
       </c>
       <c r="G154" t="n">
-        <v>9.185393048666316e-12</v>
+        <v>9.797173053777135e-06</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.464950718189644e-12</v>
+        <v>9.45941751430448e-07</v>
       </c>
       <c r="F155" t="n">
-        <v>1.098713038642233e-12</v>
+        <v>7.094563135728361e-07</v>
       </c>
       <c r="G155" t="n">
-        <v>1.831188397737055e-12</v>
+        <v>1.18242718928806e-06</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.929901436379287e-12</v>
+        <v>1.891883502860896e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>2.197426077284466e-12</v>
+        <v>1.418912627145672e-06</v>
       </c>
       <c r="G156" t="n">
-        <v>3.66237679547411e-12</v>
+        <v>2.36485437857612e-06</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>7.32475359094822e-12</v>
+        <v>4.729708757152241e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>5.493565193211164e-12</v>
+        <v>3.547281567864181e-06</v>
       </c>
       <c r="G157" t="n">
-        <v>9.155941988685275e-12</v>
+        <v>5.912135946440301e-06</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.601392330602337e-11</v>
+        <v>3.369053704689832e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>1.201044247951753e-11</v>
+        <v>2.526790278517374e-06</v>
       </c>
       <c r="G158" t="n">
-        <v>2.001740413252922e-11</v>
+        <v>4.21131713086229e-06</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3.202784661204674e-11</v>
+        <v>6.738107409379663e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>2.402088495903506e-11</v>
+        <v>5.053580557034749e-06</v>
       </c>
       <c r="G159" t="n">
-        <v>4.003480826505844e-11</v>
+        <v>8.422634261724579e-06</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>8.006961653011688e-11</v>
+        <v>1.684526852344916e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>6.005221239758764e-11</v>
+        <v>1.263395139258687e-05</v>
       </c>
       <c r="G160" t="n">
-        <v>1.000870206626461e-10</v>
+        <v>2.105658565431145e-05</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.389256979316396e-12</v>
+        <v>4.854185476276518e-07</v>
       </c>
       <c r="F161" t="n">
-        <v>1.041942734487297e-12</v>
+        <v>3.640639107207388e-07</v>
       </c>
       <c r="G161" t="n">
-        <v>1.736571224145495e-12</v>
+        <v>6.067731845345648e-07</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2.778513958632792e-12</v>
+        <v>9.708370952553036e-07</v>
       </c>
       <c r="F162" t="n">
-        <v>2.083885468974594e-12</v>
+        <v>7.281278214414777e-07</v>
       </c>
       <c r="G162" t="n">
-        <v>3.47314244829099e-12</v>
+        <v>1.21354636906913e-06</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6.946284896581981e-12</v>
+        <v>2.427092738138259e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>5.209713672436485e-12</v>
+        <v>1.820319553603694e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>8.682856120727476e-12</v>
+        <v>3.033865922672824e-06</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>285476.6783939792</v>
+        <v>43895.68110502451</v>
       </c>
       <c r="F164" t="n">
-        <v>214107.5087954844</v>
+        <v>32921.76082876838</v>
       </c>
       <c r="G164" t="n">
-        <v>356845.8479924741</v>
+        <v>54869.60138128063</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>570953.3567879584</v>
+        <v>98515.43555645552</v>
       </c>
       <c r="F165" t="n">
-        <v>428215.0175909689</v>
+        <v>73886.57666734164</v>
       </c>
       <c r="G165" t="n">
-        <v>713691.6959849482</v>
+        <v>123144.2944455694</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1427383.391969896</v>
+        <v>15696.76600920461</v>
       </c>
       <c r="F166" t="n">
-        <v>1070537.543977422</v>
+        <v>11772.57450690345</v>
       </c>
       <c r="G166" t="n">
-        <v>1784229.239962371</v>
+        <v>19620.95751150576</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>226915.4934458821</v>
+        <v>33698.93347869148</v>
       </c>
       <c r="F167" t="n">
-        <v>170186.6200844116</v>
+        <v>25274.20010901861</v>
       </c>
       <c r="G167" t="n">
-        <v>283644.3668073528</v>
+        <v>42123.66684836435</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>453830.9868917643</v>
+        <v>67397.86695738295</v>
       </c>
       <c r="F168" t="n">
-        <v>340373.2401688233</v>
+        <v>50548.40021803723</v>
       </c>
       <c r="G168" t="n">
-        <v>567288.7336147055</v>
+        <v>84247.3336967287</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1134577.467229411</v>
+        <v>208441.6446736822</v>
       </c>
       <c r="F169" t="n">
-        <v>850933.1004220581</v>
+        <v>156331.2335052617</v>
       </c>
       <c r="G169" t="n">
-        <v>1418221.834036764</v>
+        <v>260552.0558421028</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F170" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G170" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F171" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G171" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F172" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G172" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F173" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G173" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F174" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G174" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F175" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G175" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F176" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G176" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F177" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G177" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F178" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G178" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F179" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G179" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F180" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G180" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G181" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F182" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G182" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F183" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G183" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F184" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G184" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F185" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G185" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F186" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G186" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F187" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G187" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F188" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G188" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F189" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G189" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F190" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G190" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1.457355765916481e-08</v>
+        <v>0.0001205531793592395</v>
       </c>
       <c r="F191" t="n">
-        <v>1.093016824437361e-08</v>
+        <v>9.041488451942963e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>1.821694707395601e-08</v>
+        <v>0.0001506914741990494</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2.914711531832962e-08</v>
+        <v>0.000241106358718479</v>
       </c>
       <c r="F192" t="n">
-        <v>2.186033648874721e-08</v>
+        <v>0.0001808297690388593</v>
       </c>
       <c r="G192" t="n">
-        <v>3.643389414791202e-08</v>
+        <v>0.0003013829483980987</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>7.286778829582405e-08</v>
+        <v>0.0006027658967961974</v>
       </c>
       <c r="F193" t="n">
-        <v>5.465084122186803e-08</v>
+        <v>0.0004520744225971481</v>
       </c>
       <c r="G193" t="n">
-        <v>9.108473536978006e-08</v>
+        <v>0.0007534573709952469</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2.560480301997871e-15</v>
+        <v>2.251392746424361e-09</v>
       </c>
       <c r="F194" t="n">
-        <v>1.920360226498403e-15</v>
+        <v>1.688544559818271e-09</v>
       </c>
       <c r="G194" t="n">
-        <v>3.200600377497339e-15</v>
+        <v>2.814240933030452e-09</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5.120960603995742e-15</v>
+        <v>4.502785492848722e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>3.840720452996807e-15</v>
+        <v>3.377089119636542e-09</v>
       </c>
       <c r="G195" t="n">
-        <v>6.401200754994678e-15</v>
+        <v>5.628481866060903e-09</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1.280240150998936e-14</v>
+        <v>1.125696373212181e-08</v>
       </c>
       <c r="F196" t="n">
-        <v>9.601801132492017e-15</v>
+        <v>8.442722799091355e-09</v>
       </c>
       <c r="G196" t="n">
-        <v>1.60030018874867e-14</v>
+        <v>1.407120466515226e-08</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3.725398352281364e-15</v>
+        <v>1.685199815566188e-09</v>
       </c>
       <c r="F197" t="n">
-        <v>2.794048764211023e-15</v>
+        <v>1.263899861674641e-09</v>
       </c>
       <c r="G197" t="n">
-        <v>4.656747940351707e-15</v>
+        <v>2.106499769457735e-09</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>7.450796704562728e-15</v>
+        <v>3.370399631132376e-09</v>
       </c>
       <c r="F198" t="n">
-        <v>5.588097528422047e-15</v>
+        <v>2.527799723349282e-09</v>
       </c>
       <c r="G198" t="n">
-        <v>9.313495880703413e-15</v>
+        <v>4.21299953891547e-09</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1.862699176140683e-14</v>
+        <v>8.425999077830939e-09</v>
       </c>
       <c r="F199" t="n">
-        <v>1.397024382105512e-14</v>
+        <v>6.319499308373205e-09</v>
       </c>
       <c r="G199" t="n">
-        <v>2.328373970175853e-14</v>
+        <v>1.053249884728868e-08</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.723340821789233e-14</v>
+        <v>9.929755926602608e-09</v>
       </c>
       <c r="F200" t="n">
-        <v>6.542505616341925e-14</v>
+        <v>7.447316944951958e-09</v>
       </c>
       <c r="G200" t="n">
-        <v>1.090417602723654e-13</v>
+        <v>1.241219490825326e-08</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1.744668164357847e-13</v>
+        <v>1.985951185320522e-08</v>
       </c>
       <c r="F201" t="n">
-        <v>1.308501123268385e-13</v>
+        <v>1.489463388990392e-08</v>
       </c>
       <c r="G201" t="n">
-        <v>2.180835205447308e-13</v>
+        <v>2.482438981650652e-08</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4.361670410894617e-13</v>
+        <v>4.964877963301305e-08</v>
       </c>
       <c r="F202" t="n">
-        <v>3.271252808170963e-13</v>
+        <v>3.723658472475979e-08</v>
       </c>
       <c r="G202" t="n">
-        <v>5.452088013618271e-13</v>
+        <v>6.206097454126632e-08</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5.633580240391233e-15</v>
+        <v>1.125270435596213e-09</v>
       </c>
       <c r="F203" t="n">
-        <v>4.225185180293424e-15</v>
+        <v>8.439528266971597e-10</v>
       </c>
       <c r="G203" t="n">
-        <v>7.041975300489042e-15</v>
+        <v>1.406588044495266e-09</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.126716048078247e-14</v>
+        <v>2.250540871192425e-09</v>
       </c>
       <c r="F204" t="n">
-        <v>8.450370360586849e-15</v>
+        <v>1.687905653394319e-09</v>
       </c>
       <c r="G204" t="n">
-        <v>1.408395060097808e-14</v>
+        <v>2.813176088990533e-09</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2.816790120195617e-14</v>
+        <v>5.626352177981065e-09</v>
       </c>
       <c r="F205" t="n">
-        <v>2.112592590146712e-14</v>
+        <v>4.219764133485798e-09</v>
       </c>
       <c r="G205" t="n">
-        <v>3.520987650244521e-14</v>
+        <v>7.032940222476331e-09</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>269346.1670123437</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F206" t="n">
-        <v>202009.6252592578</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G206" t="n">
-        <v>336682.7087654297</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>538692.3340246874</v>
+        <v>84085.10837719498</v>
       </c>
       <c r="F207" t="n">
-        <v>404019.2505185155</v>
+        <v>63063.83128289624</v>
       </c>
       <c r="G207" t="n">
-        <v>673365.4175308594</v>
+        <v>105106.3854714937</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1346730.835061719</v>
+        <v>667.031928473041</v>
       </c>
       <c r="F208" t="n">
-        <v>1010048.126296289</v>
+        <v>500.2739463547808</v>
       </c>
       <c r="G208" t="n">
-        <v>1683413.543827148</v>
+        <v>833.7899105913013</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>193933.3287183661</v>
+        <v>28885.85364934093</v>
       </c>
       <c r="F209" t="n">
-        <v>145449.9965387746</v>
+        <v>21664.3902370057</v>
       </c>
       <c r="G209" t="n">
-        <v>242416.6608979577</v>
+        <v>36107.31706167616</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>387866.6574367323</v>
+        <v>59276.90878395279</v>
       </c>
       <c r="F210" t="n">
-        <v>290899.9930775492</v>
+        <v>44457.68158796459</v>
       </c>
       <c r="G210" t="n">
-        <v>484833.3217959154</v>
+        <v>74096.135979941</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>969666.6435918307</v>
+        <v>168580.5422403757</v>
       </c>
       <c r="F211" t="n">
-        <v>727249.982693873</v>
+        <v>126435.4066802818</v>
       </c>
       <c r="G211" t="n">
-        <v>1212083.304489788</v>
+        <v>210725.6778004697</v>
       </c>
     </row>
   </sheetData>
